--- a/app/src/main/assets/leida.xlsx
+++ b/app/src/main/assets/leida.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Student\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Education\app\src\main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37E79828-7745-453F-B899-4D4A0422FED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06A52326-E6A4-4123-B061-748159214FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21806" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>成绩</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,14 @@
   </si>
   <si>
     <t>期末考试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五单元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -409,10 +417,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="C2">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -420,10 +428,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C3">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -431,10 +439,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="C4">
-        <v>125</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -442,32 +450,54 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C5">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C6">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>86</v>
       </c>
       <c r="C7">
-        <v>80</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>86.5</v>
+      </c>
+      <c r="C9">
+        <v>78.599999999999994</v>
       </c>
     </row>
   </sheetData>
